--- a/REGULAR/CONTEMPRATO, JO HANES.xlsx
+++ b/REGULAR/CONTEMPRATO, JO HANES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>CONTEMPRATO, JO HANES</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>4/11-17/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>4/17-28/2023</t>
   </si>
 </sst>
 </file>
@@ -974,7 +986,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K479" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K481" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1303,12 +1315,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K479"/>
+  <dimension ref="A2:K481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570"/>
+      <pane ySplit="3690" topLeftCell="A121" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1481,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>126.18299999999999</v>
+        <v>114.68299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1479,7 +1491,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>180.167</v>
+        <v>187.667</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3975,15 +3987,20 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <f>EDATE(A128,1)</f>
+        <v>44866</v>
+      </c>
       <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
+      <c r="C129" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D129" s="39"/>
       <c r="E129" s="9"/>
       <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G129" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H129" s="39"/>
       <c r="I129" s="9"/>
@@ -3991,15 +4008,24 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40">
+        <f t="shared" ref="A130:A139" si="0">EDATE(A129,1)</f>
+        <v>44896</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D130" s="43">
+        <v>5</v>
+      </c>
       <c r="E130" s="9"/>
       <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G130" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H130" s="43"/>
       <c r="I130" s="9"/>
@@ -4007,111 +4033,178 @@
       <c r="K130" s="15"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="15"/>
       <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="39"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <f>EDATE(A130,1)</f>
+        <v>44927</v>
+      </c>
       <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39"/>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13"/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <f t="shared" si="0"/>
+        <v>44958</v>
+      </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
-      <c r="G133" s="13"/>
+      <c r="G133" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H133" s="39"/>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="39"/>
+      <c r="A134" s="40">
+        <f t="shared" si="0"/>
+        <v>44986</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D134" s="39">
+        <v>5</v>
+      </c>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13"/>
+      <c r="G134" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
+      <c r="K134" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
-      <c r="B135" s="20"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="39"/>
+      <c r="B135" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D135" s="39">
+        <v>9</v>
+      </c>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13"/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20"/>
+      <c r="K135" s="20" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
+      <c r="A136" s="40">
+        <f>EDATE(A134,1)</f>
+        <v>45017</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
       <c r="F136" s="20"/>
-      <c r="G136" s="13"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
+      <c r="A137" s="40">
+        <f t="shared" si="0"/>
+        <v>45047</v>
+      </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
       <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <f t="shared" si="0"/>
+        <v>45078</v>
+      </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
       <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="13"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
@@ -8531,17 +8624,43 @@
       <c r="K478" s="20"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A479" s="41"/>
-      <c r="B479" s="15"/>
-      <c r="C479" s="42"/>
-      <c r="D479" s="43"/>
-      <c r="E479" s="50"/>
-      <c r="F479" s="15"/>
-      <c r="G479" s="42"/>
-      <c r="H479" s="43"/>
-      <c r="I479" s="50"/>
-      <c r="J479" s="12"/>
-      <c r="K479" s="15"/>
+      <c r="A479" s="40"/>
+      <c r="B479" s="20"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="39"/>
+      <c r="E479" s="9"/>
+      <c r="F479" s="20"/>
+      <c r="G479" s="13"/>
+      <c r="H479" s="39"/>
+      <c r="I479" s="9"/>
+      <c r="J479" s="11"/>
+      <c r="K479" s="20"/>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="40"/>
+      <c r="B480" s="20"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="39"/>
+      <c r="E480" s="9"/>
+      <c r="F480" s="20"/>
+      <c r="G480" s="13"/>
+      <c r="H480" s="39"/>
+      <c r="I480" s="9"/>
+      <c r="J480" s="11"/>
+      <c r="K480" s="20"/>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="41"/>
+      <c r="B481" s="15"/>
+      <c r="C481" s="42"/>
+      <c r="D481" s="43"/>
+      <c r="E481" s="50"/>
+      <c r="F481" s="15"/>
+      <c r="G481" s="42"/>
+      <c r="H481" s="43"/>
+      <c r="I481" s="50"/>
+      <c r="J481" s="12"/>
+      <c r="K481" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CONTEMPRATO, JO HANES.xlsx
+++ b/REGULAR/CONTEMPRATO, JO HANES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF341A3-8857-435B-9263-5A52DB5BBE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -279,9 +280,6 @@
     <t>2022</t>
   </si>
   <si>
-    <t>CONTEMPRATO, JO HANES</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -293,18 +291,27 @@
   <si>
     <t>4/17-28/2023</t>
   </si>
+  <si>
+    <t>CONTEMPRATO, JO HANES DESCADA</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,6 +345,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -528,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,6 +723,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,25 +1004,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K481" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K482" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1311,41 +1329,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K481"/>
+  <dimension ref="A2:K482"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A121" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <pane ySplit="3696" topLeftCell="A130" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="52"/>
+      <c r="B2" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="62"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
@@ -1359,11 +1377,13 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
+      <c r="B3" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
@@ -1379,7 +1399,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1390,7 +1410,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>83</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1399,7 +1421,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1407,7 +1429,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1420,7 +1442,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1437,7 +1459,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1472,7 +1494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1496,7 +1518,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
@@ -1518,7 +1540,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>41640</v>
       </c>
@@ -1538,7 +1560,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>41671</v>
       </c>
@@ -1558,7 +1580,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>41699</v>
       </c>
@@ -1578,7 +1600,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>41730</v>
       </c>
@@ -1598,7 +1620,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>41760</v>
       </c>
@@ -1618,7 +1640,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>41791</v>
       </c>
@@ -1638,7 +1660,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>41821</v>
       </c>
@@ -1664,7 +1686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>41852</v>
       </c>
@@ -1684,7 +1706,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>41883</v>
       </c>
@@ -1704,7 +1726,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>41913</v>
       </c>
@@ -1724,7 +1746,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>41944</v>
       </c>
@@ -1744,7 +1766,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>41974</v>
       </c>
@@ -1764,7 +1786,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -1782,7 +1804,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>42005</v>
       </c>
@@ -1802,7 +1824,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>42036</v>
       </c>
@@ -1822,7 +1844,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>42064</v>
       </c>
@@ -1846,7 +1868,7 @@
         <v>42086</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>42095</v>
       </c>
@@ -1866,7 +1888,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>42125</v>
       </c>
@@ -1886,7 +1908,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>42156</v>
       </c>
@@ -1906,7 +1928,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>42186</v>
       </c>
@@ -1932,7 +1954,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>42217</v>
       </c>
@@ -1952,7 +1974,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>42248</v>
       </c>
@@ -1972,7 +1994,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>42278</v>
       </c>
@@ -1992,7 +2014,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>42309</v>
       </c>
@@ -2012,7 +2034,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>42339</v>
       </c>
@@ -2036,7 +2058,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2076,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>42370</v>
       </c>
@@ -2080,7 +2102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>42401</v>
       </c>
@@ -2100,7 +2122,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>42430</v>
       </c>
@@ -2120,7 +2142,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>42461</v>
       </c>
@@ -2140,7 +2162,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>42491</v>
       </c>
@@ -2160,7 +2182,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>42522</v>
       </c>
@@ -2180,7 +2202,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>42552</v>
       </c>
@@ -2200,7 +2222,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>42583</v>
       </c>
@@ -2220,7 +2242,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>42614</v>
       </c>
@@ -2240,7 +2262,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>42644</v>
       </c>
@@ -2260,7 +2282,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>42675</v>
       </c>
@@ -2280,7 +2302,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>42675</v>
       </c>
@@ -2300,7 +2322,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>42705</v>
       </c>
@@ -2324,7 +2346,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="48" t="s">
         <v>54</v>
       </c>
@@ -2342,7 +2364,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>42736</v>
       </c>
@@ -2362,7 +2384,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>42767</v>
       </c>
@@ -2382,7 +2404,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>42795</v>
       </c>
@@ -2406,7 +2428,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>42826</v>
       </c>
@@ -2430,7 +2452,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>42856</v>
       </c>
@@ -2454,7 +2476,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>42887</v>
       </c>
@@ -2478,7 +2500,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>42917</v>
       </c>
@@ -2500,7 +2522,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>48</v>
@@ -2520,7 +2542,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>58</v>
@@ -2540,7 +2562,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>42948</v>
       </c>
@@ -2562,7 +2584,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>42979</v>
       </c>
@@ -2582,7 +2604,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44105</v>
       </c>
@@ -2602,7 +2624,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43040</v>
       </c>
@@ -2622,7 +2644,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>43070</v>
       </c>
@@ -2646,7 +2668,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>61</v>
       </c>
@@ -2664,7 +2686,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>43101</v>
       </c>
@@ -2684,7 +2706,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>43132</v>
       </c>
@@ -2704,7 +2726,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43160</v>
       </c>
@@ -2730,7 +2752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -2750,7 +2772,7 @@
         <v>43186</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>43191</v>
       </c>
@@ -2770,7 +2792,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>43221</v>
       </c>
@@ -2794,7 +2816,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>43252</v>
       </c>
@@ -2818,7 +2840,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43282</v>
       </c>
@@ -2842,7 +2864,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>43313</v>
       </c>
@@ -2866,7 +2888,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>43344</v>
       </c>
@@ -2890,7 +2912,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>43374</v>
       </c>
@@ -2914,7 +2936,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>43405</v>
       </c>
@@ -2938,7 +2960,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>43435</v>
       </c>
@@ -2962,7 +2984,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="48" t="s">
         <v>70</v>
       </c>
@@ -2980,7 +3002,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>43466</v>
       </c>
@@ -3004,7 +3026,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>43497</v>
       </c>
@@ -3028,7 +3050,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>43525</v>
       </c>
@@ -3052,7 +3074,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>43556</v>
       </c>
@@ -3076,7 +3098,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>43586</v>
       </c>
@@ -3100,7 +3122,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>43617</v>
       </c>
@@ -3124,7 +3146,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>43647</v>
       </c>
@@ -3144,7 +3166,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>43678</v>
       </c>
@@ -3164,7 +3186,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>43709</v>
       </c>
@@ -3184,7 +3206,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>43739</v>
       </c>
@@ -3204,7 +3226,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>43770</v>
       </c>
@@ -3224,7 +3246,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>43800</v>
       </c>
@@ -3244,7 +3266,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>75</v>
       </c>
@@ -3262,7 +3284,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>43831</v>
       </c>
@@ -3282,7 +3304,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>43862</v>
       </c>
@@ -3302,7 +3324,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>43891</v>
       </c>
@@ -3322,7 +3344,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>43922</v>
       </c>
@@ -3342,7 +3364,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>43952</v>
       </c>
@@ -3362,7 +3384,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>43983</v>
       </c>
@@ -3382,7 +3404,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>44013</v>
       </c>
@@ -3402,7 +3424,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44044</v>
       </c>
@@ -3422,7 +3444,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44075</v>
       </c>
@@ -3442,7 +3464,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44105</v>
       </c>
@@ -3462,7 +3484,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44136</v>
       </c>
@@ -3482,7 +3504,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44166</v>
       </c>
@@ -3506,7 +3528,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>76</v>
       </c>
@@ -3524,7 +3546,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44197</v>
       </c>
@@ -3544,7 +3566,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>44228</v>
       </c>
@@ -3564,7 +3586,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44256</v>
       </c>
@@ -3584,7 +3606,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>44287</v>
       </c>
@@ -3604,7 +3626,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>44317</v>
       </c>
@@ -3624,7 +3646,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>44348</v>
       </c>
@@ -3644,7 +3666,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>44378</v>
       </c>
@@ -3664,7 +3686,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>44409</v>
       </c>
@@ -3684,7 +3706,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>44440</v>
       </c>
@@ -3704,7 +3726,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>44470</v>
       </c>
@@ -3724,7 +3746,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>44501</v>
       </c>
@@ -3744,7 +3766,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>44531</v>
       </c>
@@ -3768,7 +3790,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>77</v>
       </c>
@@ -3786,7 +3808,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>44562</v>
       </c>
@@ -3806,7 +3828,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>44593</v>
       </c>
@@ -3826,7 +3848,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>44621</v>
       </c>
@@ -3846,7 +3868,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>44652</v>
       </c>
@@ -3866,7 +3888,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>44682</v>
       </c>
@@ -3886,7 +3908,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>44713</v>
       </c>
@@ -3906,7 +3928,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>44743</v>
       </c>
@@ -3926,7 +3948,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>44774</v>
       </c>
@@ -3946,7 +3968,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>44805</v>
       </c>
@@ -3966,7 +3988,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>44835</v>
       </c>
@@ -3986,7 +4008,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f>EDATE(A128,1)</f>
         <v>44866</v>
@@ -4007,9 +4029,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" ref="A130:A139" si="0">EDATE(A129,1)</f>
+        <f t="shared" ref="A130:A140" si="0">EDATE(A129,1)</f>
         <v>44896</v>
       </c>
       <c r="B130" s="15" t="s">
@@ -4032,9 +4054,9 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" s="15"/>
       <c r="C131" s="13"/>
@@ -4050,7 +4072,7 @@
       <c r="J131" s="12"/>
       <c r="K131" s="15"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>44927</v>
@@ -4071,7 +4093,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="0"/>
         <v>44958</v>
@@ -4092,7 +4114,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="0"/>
         <v>44986</v>
@@ -4116,13 +4138,13 @@
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
       <c r="K134" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C135" s="13">
         <v>1.25</v>
@@ -4140,15 +4162,14 @@
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
       <c r="K135" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="40">
-        <f>EDATE(A134,1)</f>
-        <v>45017</v>
-      </c>
-      <c r="B136" s="20"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C136" s="13"/>
       <c r="D136" s="39"/>
       <c r="E136" s="9"/>
@@ -4160,12 +4181,14 @@
       <c r="H136" s="39"/>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="20"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K136" s="49">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f t="shared" si="0"/>
-        <v>45047</v>
+        <f>EDATE(A134,1)</f>
+        <v>45017</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4181,10 +4204,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4200,24 +4223,30 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="0"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
       <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="13"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
@@ -4229,7 +4258,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4242,7 +4271,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4255,7 +4284,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4268,7 +4297,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4281,7 +4310,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4294,7 +4323,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4307,7 +4336,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4320,7 +4349,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4333,7 +4362,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4346,7 +4375,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4359,7 +4388,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -4372,7 +4401,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -4385,7 +4414,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -4398,7 +4427,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -4411,7 +4440,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -4424,7 +4453,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -4437,7 +4466,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -4450,7 +4479,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -4463,7 +4492,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -4476,7 +4505,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -4489,7 +4518,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -4502,7 +4531,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -4515,7 +4544,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -4528,7 +4557,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -4541,7 +4570,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -4554,7 +4583,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -4567,7 +4596,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -4580,7 +4609,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -4593,7 +4622,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -4606,7 +4635,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -4619,7 +4648,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -4632,7 +4661,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -4645,7 +4674,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -4658,7 +4687,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -4671,7 +4700,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -4684,7 +4713,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -4697,7 +4726,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -4710,7 +4739,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -4723,7 +4752,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -4736,7 +4765,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -4749,7 +4778,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -4762,7 +4791,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -4775,7 +4804,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -4788,7 +4817,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -4801,7 +4830,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -4814,7 +4843,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -4827,7 +4856,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -4840,7 +4869,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -4853,7 +4882,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -4866,7 +4895,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -4879,7 +4908,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -4892,7 +4921,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -4905,7 +4934,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -4918,7 +4947,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -4931,7 +4960,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -4944,7 +4973,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -4957,7 +4986,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -4970,7 +4999,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -4983,7 +5012,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -4996,7 +5025,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5009,7 +5038,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5022,7 +5051,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5035,7 +5064,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5048,7 +5077,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5061,7 +5090,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5074,7 +5103,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5087,7 +5116,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5100,7 +5129,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5113,7 +5142,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5126,7 +5155,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5139,7 +5168,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5152,7 +5181,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -5165,7 +5194,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5178,7 +5207,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5191,7 +5220,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5204,7 +5233,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5217,7 +5246,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5230,7 +5259,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5243,7 +5272,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5256,7 +5285,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5269,7 +5298,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5282,7 +5311,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5295,7 +5324,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5308,7 +5337,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5321,7 +5350,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5334,7 +5363,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5347,7 +5376,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5360,7 +5389,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -5373,7 +5402,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -5386,7 +5415,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -5399,7 +5428,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -5412,7 +5441,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -5425,7 +5454,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -5438,7 +5467,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -5451,7 +5480,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -5464,7 +5493,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -5477,7 +5506,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -5490,7 +5519,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -5503,7 +5532,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -5516,7 +5545,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -5529,7 +5558,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -5542,7 +5571,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -5555,7 +5584,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -5568,7 +5597,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -5581,7 +5610,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20"/>
       <c r="C245" s="13"/>
@@ -5594,7 +5623,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13"/>
@@ -5607,7 +5636,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -5620,7 +5649,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13"/>
@@ -5633,7 +5662,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20"/>
       <c r="C249" s="13"/>
@@ -5646,7 +5675,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13"/>
@@ -5659,7 +5688,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20"/>
       <c r="C251" s="13"/>
@@ -5672,7 +5701,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20"/>
       <c r="C252" s="13"/>
@@ -5685,7 +5714,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20"/>
       <c r="C253" s="13"/>
@@ -5698,7 +5727,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20"/>
       <c r="C254" s="13"/>
@@ -5711,7 +5740,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13"/>
@@ -5724,7 +5753,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20"/>
       <c r="C256" s="13"/>
@@ -5737,7 +5766,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20"/>
       <c r="C257" s="13"/>
@@ -5750,7 +5779,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20"/>
       <c r="C258" s="13"/>
@@ -5763,7 +5792,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20"/>
       <c r="C259" s="13"/>
@@ -5776,7 +5805,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13"/>
@@ -5789,7 +5818,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20"/>
       <c r="C261" s="13"/>
@@ -5802,7 +5831,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -5815,7 +5844,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13"/>
@@ -5828,7 +5857,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
@@ -5841,7 +5870,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20"/>
       <c r="C265" s="13"/>
@@ -5854,7 +5883,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13"/>
@@ -5867,7 +5896,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20"/>
       <c r="C267" s="13"/>
@@ -5880,7 +5909,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13"/>
@@ -5893,7 +5922,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13"/>
@@ -5906,7 +5935,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13"/>
@@ -5919,7 +5948,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
@@ -5932,7 +5961,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20"/>
       <c r="C272" s="13"/>
@@ -5945,7 +5974,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13"/>
@@ -5958,7 +5987,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13"/>
@@ -5971,7 +6000,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20"/>
       <c r="C275" s="13"/>
@@ -5984,7 +6013,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -5997,7 +6026,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20"/>
       <c r="C277" s="13"/>
@@ -6010,7 +6039,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20"/>
       <c r="C278" s="13"/>
@@ -6023,7 +6052,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20"/>
       <c r="C279" s="13"/>
@@ -6036,7 +6065,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20"/>
       <c r="C280" s="13"/>
@@ -6049,7 +6078,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20"/>
       <c r="C281" s="13"/>
@@ -6062,7 +6091,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20"/>
       <c r="C282" s="13"/>
@@ -6075,7 +6104,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20"/>
       <c r="C283" s="13"/>
@@ -6088,7 +6117,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20"/>
       <c r="C284" s="13"/>
@@ -6101,7 +6130,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13"/>
@@ -6114,7 +6143,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20"/>
       <c r="C286" s="13"/>
@@ -6127,7 +6156,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13"/>
@@ -6140,7 +6169,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13"/>
@@ -6153,7 +6182,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20"/>
       <c r="C289" s="13"/>
@@ -6166,7 +6195,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13"/>
@@ -6179,7 +6208,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -6192,7 +6221,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20"/>
       <c r="C292" s="13"/>
@@ -6205,7 +6234,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20"/>
       <c r="C293" s="13"/>
@@ -6218,7 +6247,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20"/>
       <c r="C294" s="13"/>
@@ -6231,7 +6260,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20"/>
       <c r="C295" s="13"/>
@@ -6244,7 +6273,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13"/>
@@ -6257,7 +6286,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20"/>
       <c r="C297" s="13"/>
@@ -6270,7 +6299,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20"/>
       <c r="C298" s="13"/>
@@ -6283,7 +6312,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20"/>
       <c r="C299" s="13"/>
@@ -6296,7 +6325,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20"/>
       <c r="C300" s="13"/>
@@ -6309,7 +6338,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20"/>
       <c r="C301" s="13"/>
@@ -6322,7 +6351,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20"/>
       <c r="C302" s="13"/>
@@ -6335,7 +6364,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
@@ -6348,7 +6377,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -6361,7 +6390,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20"/>
       <c r="C305" s="13"/>
@@ -6374,7 +6403,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -6387,7 +6416,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -6400,7 +6429,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -6413,7 +6442,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -6426,7 +6455,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -6439,7 +6468,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -6452,7 +6481,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -6465,7 +6494,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -6478,7 +6507,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -6491,7 +6520,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -6504,7 +6533,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -6517,7 +6546,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -6530,7 +6559,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -6543,7 +6572,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -6556,7 +6585,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -6569,7 +6598,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -6582,7 +6611,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -6595,7 +6624,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -6608,7 +6637,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -6621,7 +6650,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -6634,7 +6663,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -6647,7 +6676,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -6660,7 +6689,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -6673,7 +6702,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -6686,7 +6715,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -6699,7 +6728,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -6712,7 +6741,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -6725,7 +6754,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -6738,7 +6767,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -6751,7 +6780,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -6764,7 +6793,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -6777,7 +6806,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -6790,7 +6819,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -6803,7 +6832,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -6816,7 +6845,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -6829,7 +6858,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -6842,7 +6871,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -6855,7 +6884,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -6868,7 +6897,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -6881,7 +6910,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -6894,7 +6923,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -6907,7 +6936,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -6920,7 +6949,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -6933,7 +6962,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -6946,7 +6975,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -6959,7 +6988,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -6972,7 +7001,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -6985,7 +7014,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -6998,7 +7027,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -7011,7 +7040,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -7024,7 +7053,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -7037,7 +7066,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -7050,7 +7079,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -7063,7 +7092,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -7076,7 +7105,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -7089,7 +7118,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -7102,7 +7131,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -7115,7 +7144,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -7128,7 +7157,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -7141,7 +7170,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -7154,7 +7183,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -7167,7 +7196,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -7180,7 +7209,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -7193,7 +7222,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -7206,7 +7235,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -7219,7 +7248,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -7232,7 +7261,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -7245,7 +7274,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -7258,7 +7287,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -7271,7 +7300,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -7284,7 +7313,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -7297,7 +7326,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -7310,7 +7339,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -7323,7 +7352,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -7336,7 +7365,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -7349,7 +7378,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -7362,7 +7391,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -7375,7 +7404,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -7388,7 +7417,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -7401,7 +7430,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -7414,7 +7443,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -7427,7 +7456,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -7440,7 +7469,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -7453,7 +7482,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -7466,7 +7495,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -7479,7 +7508,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -7492,7 +7521,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -7505,7 +7534,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -7518,7 +7547,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20"/>
       <c r="C394" s="13"/>
@@ -7531,7 +7560,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20"/>
       <c r="C395" s="13"/>
@@ -7544,7 +7573,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -7557,7 +7586,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20"/>
       <c r="C397" s="13"/>
@@ -7570,7 +7599,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20"/>
       <c r="C398" s="13"/>
@@ -7583,7 +7612,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20"/>
       <c r="C399" s="13"/>
@@ -7596,7 +7625,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20"/>
       <c r="C400" s="13"/>
@@ -7609,7 +7638,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20"/>
       <c r="C401" s="13"/>
@@ -7622,7 +7651,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20"/>
       <c r="C402" s="13"/>
@@ -7635,7 +7664,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20"/>
       <c r="C403" s="13"/>
@@ -7648,7 +7677,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
@@ -7661,7 +7690,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20"/>
       <c r="C405" s="13"/>
@@ -7674,7 +7703,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20"/>
       <c r="C406" s="13"/>
@@ -7687,7 +7716,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -7700,7 +7729,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20"/>
       <c r="C408" s="13"/>
@@ -7713,7 +7742,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20"/>
       <c r="C409" s="13"/>
@@ -7726,7 +7755,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20"/>
       <c r="C410" s="13"/>
@@ -7739,7 +7768,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13"/>
@@ -7752,7 +7781,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -7765,7 +7794,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -7778,7 +7807,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -7791,7 +7820,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -7804,7 +7833,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -7817,7 +7846,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -7830,7 +7859,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -7843,7 +7872,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -7856,7 +7885,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -7869,7 +7898,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -7882,7 +7911,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -7895,7 +7924,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -7908,7 +7937,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -7921,7 +7950,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -7934,7 +7963,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -7947,7 +7976,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -7960,7 +7989,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -7973,7 +8002,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -7986,7 +8015,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -7999,7 +8028,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -8012,7 +8041,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -8025,7 +8054,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -8038,7 +8067,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -8051,7 +8080,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -8064,7 +8093,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -8077,7 +8106,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -8090,7 +8119,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -8103,7 +8132,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -8116,7 +8145,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -8129,7 +8158,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -8142,7 +8171,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -8155,7 +8184,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -8168,7 +8197,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -8181,7 +8210,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -8194,7 +8223,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -8207,7 +8236,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -8220,7 +8249,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -8233,7 +8262,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -8246,7 +8275,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -8259,7 +8288,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -8272,7 +8301,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -8285,7 +8314,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -8298,7 +8327,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -8311,7 +8340,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -8324,7 +8353,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -8337,7 +8366,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -8350,7 +8379,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -8363,7 +8392,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -8376,7 +8405,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -8389,7 +8418,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -8402,7 +8431,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -8415,7 +8444,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -8428,7 +8457,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -8441,7 +8470,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20"/>
       <c r="C465" s="13"/>
@@ -8454,7 +8483,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20"/>
       <c r="C466" s="13"/>
@@ -8467,7 +8496,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20"/>
       <c r="C467" s="13"/>
@@ -8480,7 +8509,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20"/>
       <c r="C468" s="13"/>
@@ -8493,7 +8522,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20"/>
       <c r="C469" s="13"/>
@@ -8506,7 +8535,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13"/>
@@ -8519,7 +8548,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40"/>
       <c r="B471" s="20"/>
       <c r="C471" s="13"/>
@@ -8532,7 +8561,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20"/>
       <c r="C472" s="13"/>
@@ -8545,7 +8574,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20"/>
       <c r="C473" s="13"/>
@@ -8558,7 +8587,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20"/>
       <c r="C474" s="13"/>
@@ -8571,7 +8600,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20"/>
       <c r="C475" s="13"/>
@@ -8584,7 +8613,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20"/>
       <c r="C476" s="13"/>
@@ -8597,7 +8626,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20"/>
       <c r="C477" s="13"/>
@@ -8610,7 +8639,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20"/>
       <c r="C478" s="13"/>
@@ -8623,7 +8652,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20"/>
       <c r="C479" s="13"/>
@@ -8636,7 +8665,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40"/>
       <c r="B480" s="20"/>
       <c r="C480" s="13"/>
@@ -8649,18 +8678,31 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A481" s="41"/>
-      <c r="B481" s="15"/>
-      <c r="C481" s="42"/>
-      <c r="D481" s="43"/>
-      <c r="E481" s="50"/>
-      <c r="F481" s="15"/>
-      <c r="G481" s="42"/>
-      <c r="H481" s="43"/>
-      <c r="I481" s="50"/>
-      <c r="J481" s="12"/>
-      <c r="K481" s="15"/>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A481" s="40"/>
+      <c r="B481" s="20"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="39"/>
+      <c r="E481" s="9"/>
+      <c r="F481" s="20"/>
+      <c r="G481" s="13"/>
+      <c r="H481" s="39"/>
+      <c r="I481" s="9"/>
+      <c r="J481" s="11"/>
+      <c r="K481" s="20"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A482" s="41"/>
+      <c r="B482" s="15"/>
+      <c r="C482" s="42"/>
+      <c r="D482" s="43"/>
+      <c r="E482" s="50"/>
+      <c r="F482" s="15"/>
+      <c r="G482" s="42"/>
+      <c r="H482" s="43"/>
+      <c r="I482" s="50"/>
+      <c r="J482" s="12"/>
+      <c r="K482" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8677,10 +8719,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8703,28 +8745,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8737,7 +8779,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8766,7 +8808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>30.167000000000002</v>
       </c>
@@ -8796,17 +8838,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8827,7 +8869,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8854,7 +8896,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8880,7 +8922,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8906,7 +8948,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8932,7 +8974,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8958,7 +9000,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8984,7 +9026,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9010,7 +9052,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9036,7 +9078,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9056,7 +9098,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9076,7 +9118,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9096,7 +9138,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9117,7 +9159,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9138,7 +9180,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9159,7 +9201,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9180,7 +9222,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9201,7 +9243,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9222,7 +9264,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9243,7 +9285,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9264,7 +9306,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9285,7 +9327,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9306,7 +9348,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9327,7 +9369,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9348,7 +9390,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9369,7 +9411,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9390,7 +9432,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9411,7 +9453,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9432,7 +9474,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9453,7 +9495,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9474,7 +9516,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9495,7 +9537,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9516,7 +9558,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9525,7 +9567,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9534,7 +9576,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9543,7 +9585,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9552,7 +9594,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9561,7 +9603,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9570,7 +9612,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9579,7 +9621,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9588,7 +9630,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9597,7 +9639,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9606,7 +9648,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9615,7 +9657,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9624,7 +9666,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9633,7 +9675,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9642,7 +9684,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9651,7 +9693,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9660,7 +9702,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9669,7 +9711,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9678,7 +9720,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9687,7 +9729,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9696,7 +9738,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9705,7 +9747,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9714,7 +9756,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9723,7 +9765,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9732,7 +9774,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9741,7 +9783,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9750,7 +9792,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9759,7 +9801,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9768,7 +9810,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9777,7 +9819,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
